--- a/lib/assets/board-members.xlsx
+++ b/lib/assets/board-members.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25711"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elnaz/Documents/dev/policeboard/lib/assets/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="460" windowWidth="19200" windowHeight="10580" tabRatio="500"/>
+    <workbookView xWindow="-75" yWindow="465" windowWidth="19200" windowHeight="10575" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>Victor</t>
   </si>
@@ -231,6 +226,12 @@
   </si>
   <si>
     <t>Kirkling</t>
+  </si>
+  <si>
+    <t>Lori</t>
+  </si>
+  <si>
+    <t>Lightfoot</t>
   </si>
 </sst>
 </file>
@@ -545,7 +546,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -553,20 +554,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -592,7 +593,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -606,7 +607,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,7 +615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -628,7 +629,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -642,7 +643,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -659,7 +660,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -673,7 +674,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -687,7 +688,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
@@ -701,7 +702,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -715,7 +716,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -732,7 +733,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -746,7 +747,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,7 +761,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -774,7 +775,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -788,7 +789,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -802,7 +803,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -816,7 +817,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -830,7 +831,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -842,6 +843,14 @@
       </c>
       <c r="E19" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
